--- a/CITCS-ICS2-CITCS INTL 3.xlsx
+++ b/CITCS-ICS2-CITCS INTL 3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OneDrive\16172-Attendance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="108">
   <si>
     <t>University of the Cordilleras</t>
   </si>
@@ -399,11 +399,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -809,8 +809,8 @@
   </sheetPr>
   <dimension ref="A1:IV264"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B50"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -823,28 +823,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -858,21 +858,21 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
@@ -886,11 +886,11 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -899,8 +899,8 @@
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -4532,8 +4532,8 @@
   </sheetPr>
   <dimension ref="A1:IV39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4542,258 +4542,315 @@
     <col min="2" max="256" width="9.453125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1">
         <v>2.11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="D1" s="1">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="D4" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="D5" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="D7" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="D8" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="D9" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="D11" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="D12" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+      <c r="D14" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+      <c r="D16" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+      <c r="D20" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+      <c r="D22" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
+      <c r="D25" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
+      <c r="D26" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
+      <c r="D28" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
+      <c r="D30" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
+      <c r="D32" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
+      <c r="D33" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
+      <c r="D34" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
         <v>105</v>
       </c>
     </row>
